--- a/result-new-colour.xlsx
+++ b/result-new-colour.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$51</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Industri</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>Sales Growth - st</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -643,11 +646,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -656,6 +670,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,10 +989,10 @@
     <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="36" width="13.140625" customWidth="1"/>
     <col min="37" max="37" width="22.7109375" customWidth="1"/>
-    <col min="38" max="38" width="13.140625" customWidth="1"/>
+    <col min="38" max="39" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,11 +1107,14 @@
       <c r="AL1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -1210,10 +1230,13 @@
         <v>-0.93684149134097916</v>
       </c>
       <c r="AM2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -1327,10 +1350,13 @@
         <v>-1.661341484644584</v>
       </c>
       <c r="AM3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1446,10 +1472,13 @@
         <v>-0.73051649324799584</v>
       </c>
       <c r="AM4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -1565,10 +1594,13 @@
         <v>0.3790709964963298</v>
       </c>
       <c r="AM5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
@@ -1684,10 +1716,13 @@
         <v>-1.9475977319987809</v>
       </c>
       <c r="AM6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
@@ -1803,10 +1838,13 @@
         <v>-1.4089477369774051</v>
       </c>
       <c r="AM7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
@@ -1920,10 +1958,13 @@
         <v>0.6133522443309195</v>
       </c>
       <c r="AM8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>83</v>
       </c>
@@ -2039,10 +2080,13 @@
         <v>-1.449110236606191</v>
       </c>
       <c r="AM9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -2158,10 +2202,13 @@
         <v>-0.44465399589016041</v>
       </c>
       <c r="AM10" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -2277,10 +2324,13 @@
         <v>-0.51041024528238976</v>
       </c>
       <c r="AM11" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -2396,10 +2446,13 @@
         <v>-0.58286024461275032</v>
       </c>
       <c r="AM12" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -2515,10 +2568,13 @@
         <v>0.44167724591767388</v>
       </c>
       <c r="AM13" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -2634,10 +2690,13 @@
         <v>-9.1664999152759469E-3</v>
       </c>
       <c r="AM14" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -2751,10 +2810,13 @@
         <v>0.32670224698036271</v>
       </c>
       <c r="AM15" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -2870,10 +2932,13 @@
         <v>-0.14579774865242329</v>
       </c>
       <c r="AM16" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -2989,10 +3054,13 @@
         <v>0.26133974758449402</v>
       </c>
       <c r="AM17" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -3106,10 +3174,13 @@
         <v>0.34481474681295282</v>
       </c>
       <c r="AM18" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -3225,10 +3296,13 @@
         <v>-0.24856649770255421</v>
       </c>
       <c r="AM19" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -3344,10 +3418,13 @@
         <v>-0.62538524421970099</v>
       </c>
       <c r="AM20" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN20" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -3463,10 +3540,13 @@
         <v>-0.67657274374658627</v>
       </c>
       <c r="AM21" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN21" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -3582,10 +3662,13 @@
         <v>-0.53364149506766845</v>
       </c>
       <c r="AM22" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN22" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -3701,10 +3784,13 @@
         <v>0.65312099396334566</v>
       </c>
       <c r="AM23" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN23" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -3820,10 +3906,13 @@
         <v>0.76179599295888645</v>
       </c>
       <c r="AM24" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
@@ -3939,10 +4028,13 @@
         <v>-0.58482899459455351</v>
       </c>
       <c r="AM25" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -4058,10 +4150,13 @@
         <v>0.63855224409800149</v>
       </c>
       <c r="AM26" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN26" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -4177,10 +4272,13 @@
         <v>-0.12099149888170201</v>
       </c>
       <c r="AM27" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN27" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
@@ -4296,10 +4394,13 @@
         <v>2.0316397312219991</v>
       </c>
       <c r="AM28" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN28" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -4415,10 +4516,13 @@
         <v>-0.37456649653796381</v>
       </c>
       <c r="AM29" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN29" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>59</v>
       </c>
@@ -4534,10 +4638,13 @@
         <v>-0.36826649659619332</v>
       </c>
       <c r="AM30" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN30" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
@@ -4653,10 +4760,13 @@
         <v>0.54917099492413279</v>
       </c>
       <c r="AM31" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN31" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -4772,10 +4882,13 @@
         <v>0.58106474462934576</v>
       </c>
       <c r="AM32" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN32" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
@@ -4891,10 +5004,13 @@
         <v>0.58421474460023115</v>
       </c>
       <c r="AM33" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN33" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -5010,10 +5126,13 @@
         <v>0.22393349793023179</v>
       </c>
       <c r="AM34" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>76</v>
       </c>
@@ -5127,10 +5246,13 @@
         <v>9.2814749142133682E-2</v>
       </c>
       <c r="AM35" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN35" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -5244,10 +5366,13 @@
         <v>0.63500849413075555</v>
       </c>
       <c r="AM36" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN36" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>84</v>
       </c>
@@ -5363,10 +5488,13 @@
         <v>1.02836474049505</v>
       </c>
       <c r="AM37" s="3">
+        <v>4</v>
+      </c>
+      <c r="AN37" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -5482,10 +5610,13 @@
         <v>-0.27455399746235742</v>
       </c>
       <c r="AM38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>66</v>
       </c>
@@ -5601,10 +5732,13 @@
         <v>0.39797099632164129</v>
       </c>
       <c r="AM39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
@@ -5720,10 +5854,13 @@
         <v>0.92677724143400086</v>
       </c>
       <c r="AM40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -5839,10 +5976,13 @@
         <v>-1.33413523766888</v>
       </c>
       <c r="AM41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>53</v>
       </c>
@@ -5956,10 +6096,13 @@
         <v>0.50231474535721476</v>
       </c>
       <c r="AM42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
@@ -6075,10 +6218,13 @@
         <v>0.31055849712957578</v>
       </c>
       <c r="AM43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>67</v>
       </c>
@@ -6192,10 +6338,13 @@
         <v>-0.16312274849229211</v>
       </c>
       <c r="AM44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>68</v>
       </c>
@@ -6311,10 +6460,13 @@
         <v>0.32867099696216601</v>
       </c>
       <c r="AM45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>69</v>
       </c>
@@ -6430,10 +6582,13 @@
         <v>-0.93054149139920883</v>
       </c>
       <c r="AM46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>70</v>
       </c>
@@ -6549,10 +6704,13 @@
         <v>0.15384599857803519</v>
       </c>
       <c r="AM47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>77</v>
       </c>
@@ -6668,10 +6826,13 @@
         <v>-1.391622737137536</v>
       </c>
       <c r="AM48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>79</v>
       </c>
@@ -6787,10 +6948,13 @@
         <v>0.52357724516069015</v>
       </c>
       <c r="AM49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>81</v>
       </c>
@@ -6904,10 +7068,13 @@
         <v>-0.27691649744052138</v>
       </c>
       <c r="AM50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>63</v>
       </c>
@@ -7021,11 +7188,14 @@
         <v>4.4406022089564861</v>
       </c>
       <c r="AM51" s="3">
+        <v>3</v>
+      </c>
+      <c r="AN51" s="3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM51"/>
+  <autoFilter ref="A1:AN51"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>